--- a/500all/speech_level/speeches_CHRG-114hhrg95079.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Curbelo. Good morning. I call this hearing to order.    This is my first hearing as chairman of the Subcommittee on Agricultural, Energy and Trade, and I look forward to working with Ranking Member Meng on issues of concern to small businesses.    The United States is one of the top procedures of citrus in the world. Florida, my home State, is the largest producing area, followed by California, Texas, and Arizona. Within these States, citrus is both economically and culturally significant. It fuels the economy, and for many growers and their families, it is a way of life passed down from one generation to another.    Citrus is a valuable United States crop. For the 2013 2014 season, its value was $3.39 billion, and a recent University of Florida study found that the total economic impact of the citrus industry in the State of Florida for fiscal year 2012/2013 was $10.68 billion. However, this United States economic powerhouse is facing significant challenges. The acreage and production of citrus are down, particularly in Florida, which is ground zero for a deadly bacterial disease that destroys citrus trees.    Huanglongbing, which is also referred to as HLB, or citrus greening, is a devastating citrus disease that has been found in Florida, Texas, and California. In addition, the insect that spreads HLB has been found in 15 States and United States territories. HLB, along with other current challenges, in particular the Mexican fruit fly in Texas, and the drought in California, are making it more difficult and costly to produce citrus. Faced with these challenges, small citrus growers, which comprise 90 percent of citrus farms and other small businesses in the citrus industry, are struggling to stay profitable and to stay in business.    Today we will be hearing from witnesses from Florida, California, and Texas who will explain how the current challenges are affecting small citrus growers and other businesses within the citrus industries in their States. I want to thank all the witnesses for taking time away from their businesses and families, and for appearing before the Committee today.    With that, I yield to the ranking member, Ms. Meng, for her opening statement.</t>
   </si>
   <si>
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Good morning. I want to thank our Chairman Curbelo and his team for putting together such an important hearing. As a member from New York State, with, I am sure, a high consumption of citrus products, I am very excited to learn more about how the Federal Government can be of help towards our small businesses.    Agricultural remains a critical part in our Nation's economy, supporting more than 16 million jobs nationwide. American farmers are the best at what they do when given the opportunity to compete on an even playing field. However, the challenges farmers face are not limited to factors under their control. Unpredictable weather conditions and stubborn pests and disease wreak significant impacts on our producers' bottom line.    Many parts of the country are still suffering from persistent drought conditions. Pests and diseases are continuing to pose significant threats to plants and their respective industries, as we are witnessing with citrus greening. However, investments in agriculture research help mitigate these impacts, both environmentally and economically, and prepare producers for future adverse conditions. While the United States may not be the world's largest procedure of citrus, it plays a substantial role in producing citrus products sold domestically and abroad. Citrus exports in 2012 alone totaled over $1 billion, and the value of the 2013 to 2014 crop was estimated to be nearly $3.5 billion, proving the importance the industry plays in creating jobs and growing our Nation's economy.    But U.S. orange production forecast is down slightly due to projected production declines in Florida and California. This trend is largely due to citrus greening, a devastating disease caused by the Asian Citrus Psyllid. To date, there is no permanent solution to this horrible infestation that is slowly spreading across America's citrus groves. The entire citrus industry has taken a major blow since the disease was first identified. It has caused a loss of millions of boxes of oranges and thousands of acres of abandoned and tainted groves.    Citrus greening has taken a particularly hard toll on small citrus operations as they are more sensitive to the costs of the infestation. Such costs can include pesticides, quarantines, fertilizers, and replanting of trees. To make matters worse, those hardworking farmers face other challenges corresponding with citrus greening; droughts, freezes, hurricanes, port labor disputes, and other citrus pests.    The barriers to operating their business have become so cumbersome and financially burdensome that many smaller operations are questioning the future of the citrus industry. In fact, some smaller operations are struggling with the decision to keep hope alive for the citrus operations or throwing in the towel and planting new crops or selling land to developers. These decisions are troubling to many besides just the growers, as the industry supports jobs in the packing, trade, and grocery sectors. Because citrus operations generate jobs not only for themselves but for different sectors of economy, addressing the challenges facing this industry will not only keep America producing jobs, but it will also continue to create jobs and gross domestic products in the future.    Today's hearing will give us the opportunity to learn more about the citrus industry in general, and what the future holds for them as we combat pests, disease, and climate issues. Though this issue is one concerning many stakeholders from local counties to numerous Federal agencies, we must hear from the small businesses on the front line of the issue. And today, we will do just that in hopes of finding ways to assist them in preserving the future of a quintessential fruit and breakfast drink. We are here today to learn more about what the Federal Government is doing to assist your small citrus businesses and what more is required. In order to ensure the success of our self-employed, we must understand the challenges facing this industry.    I thank all the witnesses for being here today, and I look forward to your comments.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -79,36 +73,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Severns</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Severns. Chairman Curbelo and Ranking Member Meng, thank you for the opportunity to testify today on the challenges that small citrus growers such as myself are facing.    Defining a small citrus grower is not easy. Years ago, a 40-acre citrus grower could make a reasonably good living. Today it probably takes 300 acres or more to stay in business farming citrus. Fifty years ago, growers did not have to deal with issues like good agricultural practices, GAAP audits, in other words, use reports, employee safety training, farm equipment emission certifications, and such as that. Today it is just part of the normal operations. Outside help and consultation is required, and it is not free. Please consider that California supplies 85 percent of the United States' fresh citrus, and has done so for nearly 150 years.    Today we have about 3,500 growers, about 100 packing houses, and probably 12,000 or more employees that work nearly year round. We sell citrus in 50 States and many countries worldwide. The major citrus-producing States represented here do what the other States cannot. We produce citrus fruits for the rest of the Nation and the world on a year-round basis. We must keep this vibrant industry healthy.    Not very long ago, California had 285,000 total acres. That number is more like 270,000 today, with more scheduled to be bulldozed this summer. The number of small citrus growers is significantly declining in California. It would appear that the small-scale citrus growers, and in a parallel sense, all citrus growers, might have a place on their own endangered species list. We have to consider the possibility of no more U.S. citrus. We need to ask ourselves: Do we want a citrus industry? U.S.-grown citrus has a superb record as a healthy, safe, nutritious, and affordable product. Yet it could easily disappear from our store shelves. Invasive pests and diseases, drought, and misguided water policy, international trade issues, and the convergence of all of these have brought our industry into perilous times.    In California, we have watched Florida's decline in production due to huanglongbing, or HLB. For a citrus tree, HLB is a death sentence. In California we have the bug, the Asian Citrus Psyllid, what we refer to as the ACP, that spreads HLB, but so far no HLB. The task before us is to keep the ACP away from potentially infectious trees, and also to remove those trees before HLB can gain a foothold.    Through our industry-funded surveys, we found a single tree in southern California that tested positive for HLB. That tree was removed, and all citrus nearby continues to test negative for HLB. That tree had been grafted by a hobby gardener with illegally transported bud wood cut from an HLB-infected tree overseas. Such actions could easily destroy a $2.4 billion industry. And that is just in California.    We have appealed to residential citrus tree owners to work with us in watching for ACP and the disease. Controlling the ACP has been a challenge in the Los Angeles Basin. Most backyards in the area have citrus trees growing in them. San Joaquin Valley and the northern citrus-producing counties have had to deal with occasional small populations of ACP detections in some citrus groves. Growers are aggressive about treating detections, but doing is expensive.    Citrus trees can be infected with HLB for 2 or 3 years before beginning to decline. By quickly removing any tree that tests positive for HLB, we may buy time to give the industry researchers an opportunity to find a solution to the disease.    In September of 2011, the California Citrus Pest and Disease Prevention Committee, CPDPC, was formed to implement statewide suppression and eradication efforts. For the program, all California growers are assessed for every 40-pound carton produced. Over the past 5-plus years, $15 million has been collected annually to pay for the work of the CPDPC. The California Department of Food and Agriculture performs regulatory work trapping, testing, and treatment programs across the State on our behalf.    Jumping ahead to water, the drought and the water situation in California is beyond critical. While the lack of normal rainfall are disastrous, so are the misguided environmental policies affecting our State. Some growers are going into their second year of zero allocation of surface water. If available, the cost of water has gone from around $200 per acre foot to as much as $1,300 per acre foot. That is a 650 percent increase.    I see I am out of time. I will say that all of these issues, in addition to others, are converging in order to make it very difficult for the small citrus grower to continue to survive.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Curbelo. Thank you very much, Mr. Severns.    Mr. Black.</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Black. Chairman Curbelo and Ranking Member Meng, good morning. I am Larry Black, and I appreciate the opportunity to speak to you on behalf of the 6,000 Florida citrus growers. I am current president of Florida Citrus Mutual, and also general manager of Peace River Packing Company, a family citrus business.    Our family settled in the central Florida area and began growing citrus in the 1850s. Our company employs 185 Floridians, and is the largest employer in the small community of Fort Meade.    The citrus industry is a powerful economic engine contributing over $10 billion annually to the Florida's economy, and provides over 62,000 jobs. The Florida citrus industry covers over 515,000 acres, and is the largest agriculture crop produced in the State. The industry is rich in traditions, and truly a way of life for my family and many other multi-generational family farms around the State.    At our industry's peak just 12 years ago, we produced over 240 million boxes of oranges on just under 800,000 acres of groves. Today, the USDA forecasts we will harvest only 96.4 million boxes of oranges; 60 percent less than our peak harvest. Some of the decrease in acreage is due to the development boom and a series of hurricanes of the last decade. The vast majority of production losses are due to huanglongbing, or known as HLB or citrus greening.    HLB is a bacteria that attacks the vascular system of the tree, and is spread by an insect vector known as the Asian Citrus Psyllid. Neither HLB nor the Asian Citrus Psyllid are native to Florida, or even the United States. The psyllid was first detected in Florida in the late 1990s. HLB was first detected in Florida in 2005, and estimates indicate over 90 percent of the trees in Florida are now infected. HLB weakens and eventually kills the trees. The lower productivity of the trees have forced growers to abandon over 130,000 acres of citrus groves. Growers are learning how to extend the productive life of the infected trees, but production costs have more than doubled due to HLB.    Orange juice prices have increased for consumers because supplies are strained and the cost of production has skyrocketed. Higher prices and competition from other beverages has resulted in per capita orange juice consumption being reduced by 50 percent. I am confident that consumption trends will reverse as research delivers solutions that will increase yields of our groves and the per unit cost of production will decline.    Growers knew early that HLB was a monumental threat to our industry, and a massive research effort began. Citrus growers have taxed themselves and have spent over $90 million over the last 9 years to fund research. The Florida State legislature has appropriated more than $20 million for the fight against HLB. The 2014 Farm bill authorized $125 million over 5 years for citrus research funding through a competitive grant process.    On behalf of citrus growers across the country, thank you for recognizing the need for a long-term funding source for the research needed to solve the HLB crisis that threatens the citrus industries in Florida, California, and Texas. Growers are working together to coordinate sprays to control the psyllid that spreads HLB. Antimicrobials and heat therapy appear to be possible near-term solutions to improve the productivity and extend the life of our trees.    Plant breeders are working to develop varieties of citrus and root stocks that are tolerant of HLB. It is apparent a massive replanting of the citrus industry is required in Florida. Economists estimate the Florida industry needs to plant 20 million trees over the next 10 years to reverse the decline and stabilize the Florida industry. Our company has replanted over 350,000 trees over the last 3 years using the latest production technologies available. I am confident we will bring these trees into production, and we will be rewarded for the risk we are taking. The USDA has authorized the Tree Assistance Program, or TAP, to aid growers with replanting efforts. The TAP program is a cost-share program that reimburses growers a portion of the tree cost.    The citrus industry is a core part of America's agricultural heritage. 62,000 Floridians produce a nutritious product that is part of a healthy diet. The industry is comprised of small family farms and associated businesses. The industry also supports many associated businesses ranging from vehicle and farm equipment dealers, banks, insurance companies, et cetera. I am confident our industry will manage through the current crisis and emerge as even a stronger industry.    Again, thank you for your support funding the much-needed research. Please consider incentives for growers to replant and other assistance to grow small businesses as they emerge from the crisis. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Curbelo. Thank you very much, Mr. Black.    Mr. Murden, you are now recognized.</t>
   </si>
   <si>
-    <t>Murden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murden. Thank you, Mr. Chairman and Ranking Member Meng.    On behalf of the over 400 commercial citrus growers in Texas, I want to express my appreciation to you for convening this hearing today to learn more about the challenges facing the United States citrus industry and our many small family owned growers.    My name is Dale Murden. My family and I currently grow citrus and raise cattle near my hometown in Harlingen, Texas. In addition to being president of Texas Citrus Mutual, I am also a current member of the board of directors of the Texas Farm Bureau. The Texas citrus industry is comprised of almost 27,000 acres across a three-county area in the Lower Rio Grande Valley. Our growers produce more than nine million cartons of fresh grapefruit and oranges each year, and another 5 million cartons of juice fruit all valued at over $100 million.    Texas is the third largest citrus-producing State behind California and Florida. The total business activity supporting Texas citrus production is valued at $200 million annually. I know this pales in comparison to my larger counterparts, but to my fellow growers, it is worth fighting for.    Currently, the industry employs up to 3,000 workers in a normal producing year, which culminates with the harvesting period from October to May.    My testimony today will focus on two critical and pressing issues facing growers in the Rio Grande Valley. I will discuss the potential economic devastation due to the invasion of the Mexican fruit fly from south of the border, as well as the rampant spread of huanglongbing, also known as HLB or citrus greening. What sets Texas apart from my colleagues in California and Florida is our proximity to Mexico and its porous border. In addition to invasive pests coming from the south, USDA has estimated that there are conservatively over a half million citrus trees in backyards and private homes valley-wide. And we all love to grow our lemon and lime trees and real proud we can do that, but these trees pose a very significant threat to the commercial industry, and when left untreated, provide a safe harbor for fruit flies and the Asian Citrus Psyllid.    The Mexican fruit fly or MexFly is a fly originally found in parts of Central America that has now spread beyond the border into the Lower Rio Grande Valley of Texas. The MexFly is a problem for citrus fruits which are extremely susceptible to infestation. Economic losses result from direct damage caused by the larvae that feed on the fruit pulp. Since 1986, Texas has participated in a fruit fly control program headed by APHIS to eradicate the fruit fly from Texas and the Mexican State of Tamaulipas.    In 2012, APHIS thought they had successfully eradicated the MexFly, but recently, due to continued violence along the border, aging USDA rearing facilities, and untreated backyard citrus trees, the MexFly has been found once again in our region. This year proved especially hard for one small grove operation in Brownsville after a Mexican fruit fly was found in a neighboring backyard tree. The discovery triggered a quarantine and the grower was no longer able to harvest his crop for the year, leaving thousands of dollars of inventory on the trees with no hope for harvest. The problem is now reaching crisis levels. Since January 2014, there have been fruit fly quarantine areas off and on in the entire citrus growing region of south Texas.    Now, while the MexFly poses a real and immediate threat, the recent finds of HLB or citrus greening has growers of all sizes in south Texas extremely concerned. There is no known cure for this disease, and we have learned from our friends in Florida that this disease is deadly serious. Greening was first discovered in a Texas grove in January of 2012. Three and a half short years later, we have confirmed trees located the almost 100 groves valley-wide. With the extremely long latency period of this disease, it is really unclear how many more trees have already been infected. What this has done to growers in terms of dollars is hard to quantify. When it was first discovered in Texas, we removed not only the infected tree but several of the surrounding trees as well.    Today, positive HLB finds have become so widespread that most growers have discontinued tree removal. As such, it has quickly become a numbers game and a point of diminishing returns that keeps spreading throughout the industry.    In a desperate attempt to mitigate the effects of HLB, most growers have initiated psyllid spray programs to slow the spread of infestation until a cure can be found. This strategy is in addition to our regular care programs and has already increased our grove care expenses by almost $400 per acre.    Federal investments in HLB research and ACP eradication programs are also very critical to the survivability of the citrus industry in the United States, and as such, we have requested full funding under two high priority citrus programs; the Citrus Health Response Program, and the Huanglongbing Mult-Agency Coordination.    I would like to again thank you for your attention today on these issues. In short, the United States citrus industry, as you know it, is in extreme trouble. We are fighting to preserve our very way of life and are doing everything in our power to prevent total eradication of an essential industry.    Thanks again, Mr. Chairman, for holding this hearing, and we look forward to working with you in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Curbelo. Thank you, Mr. Murden.    And now, Dr. Rogers, you are recognized.</t>
   </si>
   <si>
-    <t>Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Chairman Curbelo, Ranking Member Meng, and members of the Subcommittee, thank you for the opportunity to speak to you today about the impacts of citrus greening on Florida's citrus industry.    My name is Michael Rogers, and I am an associate professor of entomology at the University of Florida where I serve as interim director of the Citrus Research and Education Center. And Citrus greening disease is caused by a bacterium that is spread tree to tree by an insect known as the Asian Citrus Psyllid. When a psyllid carrying the bacteria feeds on a citrus tree, it injects the disease-causing bacteria which destroys the vascular system, causing a prolonged and slow death of the tree. Long before the trees completely succumb to the disease, citrus fruit are reduced in size and quality, making them unusable for juice or as for fresh fruit. After a tree has been infected for several years, the trees can no longer hold the fruit on the tree, and most of the potentially harvestable fruit that growers have spend thousands of dollars per acre to grow, drop prematurely from the tree to the ground before it is ready to be picked.    Since 2005, greening has spread to every grove in Florida, infecting most, if not all, of the fruit-bearing trees to date. As a result, the 2015 orange harvest is predicted to be 96.4 million boxes, and this is down from 240 million boxes in 2003, and is the smallest Florida orange crop since 1966.    The future is uncertain for the Florida citrus industry and the 62,000 jobs that it supports. While there are many potential research solutions being developed that hold promise, putting that ultimate answer in the hands of growers is still years away. If we had a citrus tree today that we knew for certain was resistant to this disease, it would take 2 to 3 years to scale up commercial nursery production of that resistant tree for purchase by growers. Once a grower is able to actually plant that disease-resistant tree, it will take at least 4 years for those trees to begin producing a harvestable crop, and additional years beyond that time to recover the cost required to grow the tree up to that point. This is a really discouraging prospect for the small citrus grower who currently is just struggling to stay in business.    However, there are exciting new potential solutions for living with this disease, at least in the short term. These include new citrus varieties that have increased tolerance to the disease, use of heat treatments to kill the bacteria in the plant, thus extending the fruit-bearing life of the tree, and promising bactericidal compounds still being worked on that can be sprayed on the trees to eliminate the bacteria in the tree.    With a majority of the citrus trees in the field today nearing death, to stay in business, growers must continue to replant new trees in their groves to maintain continuity of production. The short-term solutions available will play an important role in helping growers do just that. However, with depleted financial reserves, most small growers are in desperate need of financial assistance just to stay in business another season.    Citrus research programs are also being negatively affected by the reduction in fruit yields. The research funds provided by the self-imposed grower tax to the tune of $90 million over the past 10 years are starting to dry up with the fruit yields, thus threatening to impede the progress of the promising research that must be continued to provide solutions for this disease. Fortunately, the availability of new Federal research funds, specifically the USDA, SCRI, and MAC programs, are providing some support for research on citrus greening. And a very sincere thank you to those who helped provide this needed funding through the Farm bill.    While these funds support some very promising research projects, there are still gaps in funding that exist for many promising areas of research previously funded by the citrus-grower generated tax that are threatened to go unfunded in the future. Your financial support for further research is crucial for the future of citrus growers and the 62,000 jobs they support in Florida, but also throughout the rest of the country as well.    Land grant universities in every State are dedicated to serving the public, and Federal research dollars are crucial for universities to continue their research to benefit economic development.    I appreciate the opportunity to address the committee, and I also extend an invitation to any members who are interested, please contact me to arrange a visit to the CRAC where you can witness firsthand the effects of this disease and the research under way to develop solutions to this problem.    That concludes my formal statement, and I am happy to answer any questions that you may have. Thank you.</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair. I thank you for the indulgence. I don't sit on this subcommittee, but I did have a couple questions and mostly for Mr. Severns.    I appreciate you doing what you do. It is difficult out there, and there is nothing like the water issue in California. I cannot impress upon that enough. I think that when I talk to my other colleagues in Congress, there is nothing that we talk about more. I tell them this is a national emergency. You don't understand what is happening in California, and I think that they will come about August of this year. You will see the impacts.    But the zero allocation, I think that people don't get that. That you don't get any water unless you are pumping it from the aquifer or from your wells. That is how we are getting water to our farms in California right now. And the aquifers are being depleted in some areas. Some areas have plumes that they cannot be taken out of anymore, and it is getting more and more difficult.    But my questions are more specific to what we are talking about today with the disease that is happening. I understand in Florida that it has taken over many of the areas. Has the California legislature taken this as an issue? Have they seen this as something that could strike the citrus industry in California, or are we waiting until this becomes a bigger problem?</t>
   </si>
   <si>
@@ -200,9 +179,6 @@
   </si>
   <si>
     <t>412638</t>
-  </si>
-  <si>
-    <t>Brenda L. Lawrence</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you.    Mr. Black, first, I want to commend you for your rich tradition of your family business and your contributions to the economy, and the jobs you provide in the community. Thank you.    While citrus farms are not prominent in Michigan as in Florida and California, we do rank, I just want to brag, we do rank number one nationally in the production of blueberries and tart cherries. We have our claim to fame.    In your testimony, you talk about the--changing the Tax Code to allow growers to immediately expense costs in the year that they take place. Mr. Black, can you elaborate on the need for the change and how it benefits citrus growers, and would the government experience any cost, and if so, would they be substantial? Can you comment on that, please?</t>
@@ -730,11 +706,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -754,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -782,11 +754,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -806,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -834,11 +802,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -858,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -886,11 +850,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -910,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -938,11 +898,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -962,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -990,11 +946,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1014,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1042,11 +994,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1066,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,11 +1042,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1118,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1146,11 +1090,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1170,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,11 +1138,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1222,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1250,11 +1186,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1274,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1300,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1326,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1352,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1378,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1404,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1430,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1456,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1482,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1510,11 +1426,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1534,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1560,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1586,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1612,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1638,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1664,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1690,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1718,11 +1618,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1742,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1768,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1794,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1820,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1846,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1872,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1898,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>61</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1926,11 +1810,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1950,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1978,11 +1858,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2002,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2030,11 +1906,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2054,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2080,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2108,11 +1978,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2132,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2158,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2186,11 +2050,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2210,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2236,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2262,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2288,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2314,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2340,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2368,11 +2218,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2392,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2420,11 +2266,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2444,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2472,11 +2314,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2496,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2522,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2548,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2574,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2600,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2626,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2652,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2678,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2704,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G78" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2730,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2756,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
-      </c>
-      <c r="G80" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2784,11 +2602,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2808,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" t="s">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2834,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2860,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95079.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Curbelo. Good morning. I call this hearing to order.    This is my first hearing as chairman of the Subcommittee on Agricultural, Energy and Trade, and I look forward to working with Ranking Member Meng on issues of concern to small businesses.    The United States is one of the top procedures of citrus in the world. Florida, my home State, is the largest producing area, followed by California, Texas, and Arizona. Within these States, citrus is both economically and culturally significant. It fuels the economy, and for many growers and their families, it is a way of life passed down from one generation to another.    Citrus is a valuable United States crop. For the 2013 2014 season, its value was $3.39 billion, and a recent University of Florida study found that the total economic impact of the citrus industry in the State of Florida for fiscal year 2012/2013 was $10.68 billion. However, this United States economic powerhouse is facing significant challenges. The acreage and production of citrus are down, particularly in Florida, which is ground zero for a deadly bacterial disease that destroys citrus trees.    Huanglongbing, which is also referred to as HLB, or citrus greening, is a devastating citrus disease that has been found in Florida, Texas, and California. In addition, the insect that spreads HLB has been found in 15 States and United States territories. HLB, along with other current challenges, in particular the Mexican fruit fly in Texas, and the drought in California, are making it more difficult and costly to produce citrus. Faced with these challenges, small citrus growers, which comprise 90 percent of citrus farms and other small businesses in the citrus industry, are struggling to stay profitable and to stay in business.    Today we will be hearing from witnesses from Florida, California, and Texas who will explain how the current challenges are affecting small citrus growers and other businesses within the citrus industries in their States. I want to thank all the witnesses for taking time away from their businesses and families, and for appearing before the Committee today.    With that, I yield to the ranking member, Ms. Meng, for her opening statement.</t>
   </si>
   <si>
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Good morning. I want to thank our Chairman Curbelo and his team for putting together such an important hearing. As a member from New York State, with, I am sure, a high consumption of citrus products, I am very excited to learn more about how the Federal Government can be of help towards our small businesses.    Agricultural remains a critical part in our Nation's economy, supporting more than 16 million jobs nationwide. American farmers are the best at what they do when given the opportunity to compete on an even playing field. However, the challenges farmers face are not limited to factors under their control. Unpredictable weather conditions and stubborn pests and disease wreak significant impacts on our producers' bottom line.    Many parts of the country are still suffering from persistent drought conditions. Pests and diseases are continuing to pose significant threats to plants and their respective industries, as we are witnessing with citrus greening. However, investments in agriculture research help mitigate these impacts, both environmentally and economically, and prepare producers for future adverse conditions. While the United States may not be the world's largest procedure of citrus, it plays a substantial role in producing citrus products sold domestically and abroad. Citrus exports in 2012 alone totaled over $1 billion, and the value of the 2013 to 2014 crop was estimated to be nearly $3.5 billion, proving the importance the industry plays in creating jobs and growing our Nation's economy.    But U.S. orange production forecast is down slightly due to projected production declines in Florida and California. This trend is largely due to citrus greening, a devastating disease caused by the Asian Citrus Psyllid. To date, there is no permanent solution to this horrible infestation that is slowly spreading across America's citrus groves. The entire citrus industry has taken a major blow since the disease was first identified. It has caused a loss of millions of boxes of oranges and thousands of acres of abandoned and tainted groves.    Citrus greening has taken a particularly hard toll on small citrus operations as they are more sensitive to the costs of the infestation. Such costs can include pesticides, quarantines, fertilizers, and replanting of trees. To make matters worse, those hardworking farmers face other challenges corresponding with citrus greening; droughts, freezes, hurricanes, port labor disputes, and other citrus pests.    The barriers to operating their business have become so cumbersome and financially burdensome that many smaller operations are questioning the future of the citrus industry. In fact, some smaller operations are struggling with the decision to keep hope alive for the citrus operations or throwing in the towel and planting new crops or selling land to developers. These decisions are troubling to many besides just the growers, as the industry supports jobs in the packing, trade, and grocery sectors. Because citrus operations generate jobs not only for themselves but for different sectors of economy, addressing the challenges facing this industry will not only keep America producing jobs, but it will also continue to create jobs and gross domestic products in the future.    Today's hearing will give us the opportunity to learn more about the citrus industry in general, and what the future holds for them as we combat pests, disease, and climate issues. Though this issue is one concerning many stakeholders from local counties to numerous Federal agencies, we must hear from the small businesses on the front line of the issue. And today, we will do just that in hopes of finding ways to assist them in preserving the future of a quintessential fruit and breakfast drink. We are here today to learn more about what the Federal Government is doing to assist your small citrus businesses and what more is required. In order to ensure the success of our self-employed, we must understand the challenges facing this industry.    I thank all the witnesses for being here today, and I look forward to your comments.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -73,24 +88,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Severns</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Severns. Chairman Curbelo and Ranking Member Meng, thank you for the opportunity to testify today on the challenges that small citrus growers such as myself are facing.    Defining a small citrus grower is not easy. Years ago, a 40-acre citrus grower could make a reasonably good living. Today it probably takes 300 acres or more to stay in business farming citrus. Fifty years ago, growers did not have to deal with issues like good agricultural practices, GAAP audits, in other words, use reports, employee safety training, farm equipment emission certifications, and such as that. Today it is just part of the normal operations. Outside help and consultation is required, and it is not free. Please consider that California supplies 85 percent of the United States' fresh citrus, and has done so for nearly 150 years.    Today we have about 3,500 growers, about 100 packing houses, and probably 12,000 or more employees that work nearly year round. We sell citrus in 50 States and many countries worldwide. The major citrus-producing States represented here do what the other States cannot. We produce citrus fruits for the rest of the Nation and the world on a year-round basis. We must keep this vibrant industry healthy.    Not very long ago, California had 285,000 total acres. That number is more like 270,000 today, with more scheduled to be bulldozed this summer. The number of small citrus growers is significantly declining in California. It would appear that the small-scale citrus growers, and in a parallel sense, all citrus growers, might have a place on their own endangered species list. We have to consider the possibility of no more U.S. citrus. We need to ask ourselves: Do we want a citrus industry? U.S.-grown citrus has a superb record as a healthy, safe, nutritious, and affordable product. Yet it could easily disappear from our store shelves. Invasive pests and diseases, drought, and misguided water policy, international trade issues, and the convergence of all of these have brought our industry into perilous times.    In California, we have watched Florida's decline in production due to huanglongbing, or HLB. For a citrus tree, HLB is a death sentence. In California we have the bug, the Asian Citrus Psyllid, what we refer to as the ACP, that spreads HLB, but so far no HLB. The task before us is to keep the ACP away from potentially infectious trees, and also to remove those trees before HLB can gain a foothold.    Through our industry-funded surveys, we found a single tree in southern California that tested positive for HLB. That tree was removed, and all citrus nearby continues to test negative for HLB. That tree had been grafted by a hobby gardener with illegally transported bud wood cut from an HLB-infected tree overseas. Such actions could easily destroy a $2.4 billion industry. And that is just in California.    We have appealed to residential citrus tree owners to work with us in watching for ACP and the disease. Controlling the ACP has been a challenge in the Los Angeles Basin. Most backyards in the area have citrus trees growing in them. San Joaquin Valley and the northern citrus-producing counties have had to deal with occasional small populations of ACP detections in some citrus groves. Growers are aggressive about treating detections, but doing is expensive.    Citrus trees can be infected with HLB for 2 or 3 years before beginning to decline. By quickly removing any tree that tests positive for HLB, we may buy time to give the industry researchers an opportunity to find a solution to the disease.    In September of 2011, the California Citrus Pest and Disease Prevention Committee, CPDPC, was formed to implement statewide suppression and eradication efforts. For the program, all California growers are assessed for every 40-pound carton produced. Over the past 5-plus years, $15 million has been collected annually to pay for the work of the CPDPC. The California Department of Food and Agriculture performs regulatory work trapping, testing, and treatment programs across the State on our behalf.    Jumping ahead to water, the drought and the water situation in California is beyond critical. While the lack of normal rainfall are disastrous, so are the misguided environmental policies affecting our State. Some growers are going into their second year of zero allocation of surface water. If available, the cost of water has gone from around $200 per acre foot to as much as $1,300 per acre foot. That is a 650 percent increase.    I see I am out of time. I will say that all of these issues, in addition to others, are converging in order to make it very difficult for the small citrus grower to continue to survive.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Curbelo. Thank you very much, Mr. Severns.    Mr. Black.</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Black. Chairman Curbelo and Ranking Member Meng, good morning. I am Larry Black, and I appreciate the opportunity to speak to you on behalf of the 6,000 Florida citrus growers. I am current president of Florida Citrus Mutual, and also general manager of Peace River Packing Company, a family citrus business.    Our family settled in the central Florida area and began growing citrus in the 1850s. Our company employs 185 Floridians, and is the largest employer in the small community of Fort Meade.    The citrus industry is a powerful economic engine contributing over $10 billion annually to the Florida's economy, and provides over 62,000 jobs. The Florida citrus industry covers over 515,000 acres, and is the largest agriculture crop produced in the State. The industry is rich in traditions, and truly a way of life for my family and many other multi-generational family farms around the State.    At our industry's peak just 12 years ago, we produced over 240 million boxes of oranges on just under 800,000 acres of groves. Today, the USDA forecasts we will harvest only 96.4 million boxes of oranges; 60 percent less than our peak harvest. Some of the decrease in acreage is due to the development boom and a series of hurricanes of the last decade. The vast majority of production losses are due to huanglongbing, or known as HLB or citrus greening.    HLB is a bacteria that attacks the vascular system of the tree, and is spread by an insect vector known as the Asian Citrus Psyllid. Neither HLB nor the Asian Citrus Psyllid are native to Florida, or even the United States. The psyllid was first detected in Florida in the late 1990s. HLB was first detected in Florida in 2005, and estimates indicate over 90 percent of the trees in Florida are now infected. HLB weakens and eventually kills the trees. The lower productivity of the trees have forced growers to abandon over 130,000 acres of citrus groves. Growers are learning how to extend the productive life of the infected trees, but production costs have more than doubled due to HLB.    Orange juice prices have increased for consumers because supplies are strained and the cost of production has skyrocketed. Higher prices and competition from other beverages has resulted in per capita orange juice consumption being reduced by 50 percent. I am confident that consumption trends will reverse as research delivers solutions that will increase yields of our groves and the per unit cost of production will decline.    Growers knew early that HLB was a monumental threat to our industry, and a massive research effort began. Citrus growers have taxed themselves and have spent over $90 million over the last 9 years to fund research. The Florida State legislature has appropriated more than $20 million for the fight against HLB. The 2014 Farm bill authorized $125 million over 5 years for citrus research funding through a competitive grant process.    On behalf of citrus growers across the country, thank you for recognizing the need for a long-term funding source for the research needed to solve the HLB crisis that threatens the citrus industries in Florida, California, and Texas. Growers are working together to coordinate sprays to control the psyllid that spreads HLB. Antimicrobials and heat therapy appear to be possible near-term solutions to improve the productivity and extend the life of our trees.    Plant breeders are working to develop varieties of citrus and root stocks that are tolerant of HLB. It is apparent a massive replanting of the citrus industry is required in Florida. Economists estimate the Florida industry needs to plant 20 million trees over the next 10 years to reverse the decline and stabilize the Florida industry. Our company has replanted over 350,000 trees over the last 3 years using the latest production technologies available. I am confident we will bring these trees into production, and we will be rewarded for the risk we are taking. The USDA has authorized the Tree Assistance Program, or TAP, to aid growers with replanting efforts. The TAP program is a cost-share program that reimburses growers a portion of the tree cost.    The citrus industry is a core part of America's agricultural heritage. 62,000 Floridians produce a nutritious product that is part of a healthy diet. The industry is comprised of small family farms and associated businesses. The industry also supports many associated businesses ranging from vehicle and farm equipment dealers, banks, insurance companies, et cetera. I am confident our industry will manage through the current crisis and emerge as even a stronger industry.    Again, thank you for your support funding the much-needed research. Please consider incentives for growers to replant and other assistance to grow small businesses as they emerge from the crisis. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Curbelo. Thank you very much, Mr. Black.    Mr. Murden, you are now recognized.</t>
   </si>
   <si>
+    <t>Murden</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murden. Thank you, Mr. Chairman and Ranking Member Meng.    On behalf of the over 400 commercial citrus growers in Texas, I want to express my appreciation to you for convening this hearing today to learn more about the challenges facing the United States citrus industry and our many small family owned growers.    My name is Dale Murden. My family and I currently grow citrus and raise cattle near my hometown in Harlingen, Texas. In addition to being president of Texas Citrus Mutual, I am also a current member of the board of directors of the Texas Farm Bureau. The Texas citrus industry is comprised of almost 27,000 acres across a three-county area in the Lower Rio Grande Valley. Our growers produce more than nine million cartons of fresh grapefruit and oranges each year, and another 5 million cartons of juice fruit all valued at over $100 million.    Texas is the third largest citrus-producing State behind California and Florida. The total business activity supporting Texas citrus production is valued at $200 million annually. I know this pales in comparison to my larger counterparts, but to my fellow growers, it is worth fighting for.    Currently, the industry employs up to 3,000 workers in a normal producing year, which culminates with the harvesting period from October to May.    My testimony today will focus on two critical and pressing issues facing growers in the Rio Grande Valley. I will discuss the potential economic devastation due to the invasion of the Mexican fruit fly from south of the border, as well as the rampant spread of huanglongbing, also known as HLB or citrus greening. What sets Texas apart from my colleagues in California and Florida is our proximity to Mexico and its porous border. In addition to invasive pests coming from the south, USDA has estimated that there are conservatively over a half million citrus trees in backyards and private homes valley-wide. And we all love to grow our lemon and lime trees and real proud we can do that, but these trees pose a very significant threat to the commercial industry, and when left untreated, provide a safe harbor for fruit flies and the Asian Citrus Psyllid.    The Mexican fruit fly or MexFly is a fly originally found in parts of Central America that has now spread beyond the border into the Lower Rio Grande Valley of Texas. The MexFly is a problem for citrus fruits which are extremely susceptible to infestation. Economic losses result from direct damage caused by the larvae that feed on the fruit pulp. Since 1986, Texas has participated in a fruit fly control program headed by APHIS to eradicate the fruit fly from Texas and the Mexican State of Tamaulipas.    In 2012, APHIS thought they had successfully eradicated the MexFly, but recently, due to continued violence along the border, aging USDA rearing facilities, and untreated backyard citrus trees, the MexFly has been found once again in our region. This year proved especially hard for one small grove operation in Brownsville after a Mexican fruit fly was found in a neighboring backyard tree. The discovery triggered a quarantine and the grower was no longer able to harvest his crop for the year, leaving thousands of dollars of inventory on the trees with no hope for harvest. The problem is now reaching crisis levels. Since January 2014, there have been fruit fly quarantine areas off and on in the entire citrus growing region of south Texas.    Now, while the MexFly poses a real and immediate threat, the recent finds of HLB or citrus greening has growers of all sizes in south Texas extremely concerned. There is no known cure for this disease, and we have learned from our friends in Florida that this disease is deadly serious. Greening was first discovered in a Texas grove in January of 2012. Three and a half short years later, we have confirmed trees located the almost 100 groves valley-wide. With the extremely long latency period of this disease, it is really unclear how many more trees have already been infected. What this has done to growers in terms of dollars is hard to quantify. When it was first discovered in Texas, we removed not only the infected tree but several of the surrounding trees as well.    Today, positive HLB finds have become so widespread that most growers have discontinued tree removal. As such, it has quickly become a numbers game and a point of diminishing returns that keeps spreading throughout the industry.    In a desperate attempt to mitigate the effects of HLB, most growers have initiated psyllid spray programs to slow the spread of infestation until a cure can be found. This strategy is in addition to our regular care programs and has already increased our grove care expenses by almost $400 per acre.    Federal investments in HLB research and ACP eradication programs are also very critical to the survivability of the citrus industry in the United States, and as such, we have requested full funding under two high priority citrus programs; the Citrus Health Response Program, and the Huanglongbing Mult-Agency Coordination.    I would like to again thank you for your attention today on these issues. In short, the United States citrus industry, as you know it, is in extreme trouble. We are fighting to preserve our very way of life and are doing everything in our power to prevent total eradication of an essential industry.    Thanks again, Mr. Chairman, for holding this hearing, and we look forward to working with you in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Curbelo. Thank you, Mr. Murden.    And now, Dr. Rogers, you are recognized.</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Chairman Curbelo, Ranking Member Meng, and members of the Subcommittee, thank you for the opportunity to speak to you today about the impacts of citrus greening on Florida's citrus industry.    My name is Michael Rogers, and I am an associate professor of entomology at the University of Florida where I serve as interim director of the Citrus Research and Education Center. And Citrus greening disease is caused by a bacterium that is spread tree to tree by an insect known as the Asian Citrus Psyllid. When a psyllid carrying the bacteria feeds on a citrus tree, it injects the disease-causing bacteria which destroys the vascular system, causing a prolonged and slow death of the tree. Long before the trees completely succumb to the disease, citrus fruit are reduced in size and quality, making them unusable for juice or as for fresh fruit. After a tree has been infected for several years, the trees can no longer hold the fruit on the tree, and most of the potentially harvestable fruit that growers have spend thousands of dollars per acre to grow, drop prematurely from the tree to the ground before it is ready to be picked.    Since 2005, greening has spread to every grove in Florida, infecting most, if not all, of the fruit-bearing trees to date. As a result, the 2015 orange harvest is predicted to be 96.4 million boxes, and this is down from 240 million boxes in 2003, and is the smallest Florida orange crop since 1966.    The future is uncertain for the Florida citrus industry and the 62,000 jobs that it supports. While there are many potential research solutions being developed that hold promise, putting that ultimate answer in the hands of growers is still years away. If we had a citrus tree today that we knew for certain was resistant to this disease, it would take 2 to 3 years to scale up commercial nursery production of that resistant tree for purchase by growers. Once a grower is able to actually plant that disease-resistant tree, it will take at least 4 years for those trees to begin producing a harvestable crop, and additional years beyond that time to recover the cost required to grow the tree up to that point. This is a really discouraging prospect for the small citrus grower who currently is just struggling to stay in business.    However, there are exciting new potential solutions for living with this disease, at least in the short term. These include new citrus varieties that have increased tolerance to the disease, use of heat treatments to kill the bacteria in the plant, thus extending the fruit-bearing life of the tree, and promising bactericidal compounds still being worked on that can be sprayed on the trees to eliminate the bacteria in the tree.    With a majority of the citrus trees in the field today nearing death, to stay in business, growers must continue to replant new trees in their groves to maintain continuity of production. The short-term solutions available will play an important role in helping growers do just that. However, with depleted financial reserves, most small growers are in desperate need of financial assistance just to stay in business another season.    Citrus research programs are also being negatively affected by the reduction in fruit yields. The research funds provided by the self-imposed grower tax to the tune of $90 million over the past 10 years are starting to dry up with the fruit yields, thus threatening to impede the progress of the promising research that must be continued to provide solutions for this disease. Fortunately, the availability of new Federal research funds, specifically the USDA, SCRI, and MAC programs, are providing some support for research on citrus greening. And a very sincere thank you to those who helped provide this needed funding through the Farm bill.    While these funds support some very promising research projects, there are still gaps in funding that exist for many promising areas of research previously funded by the citrus-grower generated tax that are threatened to go unfunded in the future. Your financial support for further research is crucial for the future of citrus growers and the 62,000 jobs they support in Florida, but also throughout the rest of the country as well.    Land grant universities in every State are dedicated to serving the public, and Federal research dollars are crucial for universities to continue their research to benefit economic development.    I appreciate the opportunity to address the committee, and I also extend an invitation to any members who are interested, please contact me to arrange a visit to the CRAC where you can witness firsthand the effects of this disease and the research under way to develop solutions to this problem.    That concludes my formal statement, and I am happy to answer any questions that you may have. Thank you.</t>
   </si>
   <si>
@@ -154,6 +181,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair. I thank you for the indulgence. I don't sit on this subcommittee, but I did have a couple questions and mostly for Mr. Severns.    I appreciate you doing what you do. It is difficult out there, and there is nothing like the water issue in California. I cannot impress upon that enough. I think that when I talk to my other colleagues in Congress, there is nothing that we talk about more. I tell them this is a national emergency. You don't understand what is happening in California, and I think that they will come about August of this year. You will see the impacts.    But the zero allocation, I think that people don't get that. That you don't get any water unless you are pumping it from the aquifer or from your wells. That is how we are getting water to our farms in California right now. And the aquifers are being depleted in some areas. Some areas have plumes that they cannot be taken out of anymore, and it is getting more and more difficult.    But my questions are more specific to what we are talking about today with the disease that is happening. I understand in Florida that it has taken over many of the areas. Has the California legislature taken this as an issue? Have they seen this as something that could strike the citrus industry in California, or are we waiting until this becomes a bigger problem?</t>
   </si>
   <si>
@@ -179,6 +212,12 @@
   </si>
   <si>
     <t>412638</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Brenda</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you.    Mr. Black, first, I want to commend you for your rich tradition of your family business and your contributions to the economy, and the jobs you provide in the community. Thank you.    While citrus farms are not prominent in Michigan as in Florida and California, we do rank, I just want to brag, we do rank number one nationally in the production of blueberries and tart cherries. We have our claim to fame.    In your testimony, you talk about the--changing the Tax Code to allow growers to immediately expense costs in the year that they take place. Mr. Black, can you elaborate on the need for the change and how it benefits citrus growers, and would the government experience any cost, and if so, would they be substantial? Can you comment on that, please?</t>
@@ -656,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,1997 +725,2345 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G68" t="s">
+        <v>66</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G70" t="s">
+        <v>66</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G76" t="s">
+        <v>66</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G78" t="s">
+        <v>66</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G80" t="s">
+        <v>66</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G82" t="s">
+        <v>66</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>93</v>
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95079.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -695,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +709,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,2342 +734,2524 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G80" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
